--- a/src/main/resources/template/excel/export/PASheet.xlsx
+++ b/src/main/resources/template/excel/export/PASheet.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$P$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$11</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -39,7 +39,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="P12")</t>
+          <t>jx:area(lastCell="R12")</t>
         </r>
       </text>
     </comment>
@@ -53,7 +53,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="P8")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="R8")</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>采购订单</t>
   </si>
@@ -246,6 +246,38 @@
   </si>
   <si>
     <t>${obj.isGiftName}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedPrice}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${untaxedAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含税总金额：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民币大写不含税总金额：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${untaxedAmountCN}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +383,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,32 +426,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +551,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,184 +760,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.125" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="7.125" customWidth="1" collapsed="1"/>
     <col min="5" max="7" width="7.625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="5.125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="7.5" customWidth="1" collapsed="1"/>
-    <col min="10" max="15" width="7.125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="10" max="12" width="7.125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.75" customWidth="1"/>
+    <col min="16" max="17" width="7.125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="17" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="20" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="17" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="11"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="21" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="11"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="16" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
@@ -918,35 +969,41 @@
       <c r="L7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="O7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="R7" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="10" t="s">
         <v>32</v>
       </c>
@@ -962,88 +1019,127 @@
       <c r="L8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="Q8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
       <c r="I9" s="11"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="14"/>
+      <c r="P9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="16"/>
+      <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+    <row r="10" spans="1:18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="11"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="12"/>
       <c r="J11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="11" t="s">
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="30">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H6:Q6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -1052,30 +1148,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:J5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
